--- a/OneSampleTTestDrill.xlsx
+++ b/OneSampleTTestDrill.xlsx
@@ -8,22 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{143EC4EB-2A38-425B-B9D1-A65C3C684591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D7420-C81D-4D88-8CA4-4BF125CE94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Formats" sheetId="2" r:id="rId2"/>
-    <sheet name="Lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,93 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
-  <si>
-    <t>FROM:</t>
-  </si>
-  <si>
-    <t>Mark Biegert</t>
-  </si>
-  <si>
-    <t>SUBJECT:</t>
-  </si>
-  <si>
-    <t>DATE:</t>
-  </si>
-  <si>
-    <t>Category A</t>
-  </si>
-  <si>
-    <t>Category B</t>
-  </si>
-  <si>
-    <t>Category C</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Value</t>
-  </si>
-  <si>
-    <t>Table Formats</t>
-  </si>
-  <si>
-    <t>Tab Colors</t>
-  </si>
-  <si>
-    <t>Data Tabs</t>
-  </si>
-  <si>
-    <t>Report Tabs</t>
-  </si>
-  <si>
-    <t>Analysis Tabs</t>
-  </si>
-  <si>
-    <t>Metadata Tabs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Player</t>
   </si>
@@ -245,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,30 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -331,39 +217,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
+  <cellStyles count="13">
+    <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" hidden="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Intro_Hd" xfId="7" xr:uid="{84D0D410-758D-4384-B224-A500BAF57428}"/>
-    <cellStyle name="Intro_Value" xfId="8" xr:uid="{15DF3F31-B3CA-47B9-81DE-6CDBDA24C6D7}"/>
-    <cellStyle name="Linked Cell" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="9" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
@@ -813,400 +689,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>511974</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>117088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B3A76A-AD87-A2F0-F0E9-6A004CA461AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6696075" y="314325"/>
-          <a:ext cx="10275099" cy="6325483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321946</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C152DCAB-1278-82E3-CFEB-6F87AEC44F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3166111" y="262835"/>
-          <a:ext cx="2200275" cy="455350"/>
-          <a:chOff x="3162301" y="274265"/>
-          <a:chExt cx="2198370" cy="459814"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5418FC71-57C1-F5D7-BE08-370D83484521}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3162301" y="274265"/>
-            <a:ext cx="809778" cy="446678"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>FROM:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>SUBJECT:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>DATE:</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26264A4F-00E9-4727-AA3D-59D97AF5D346}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3908004" y="274265"/>
-            <a:ext cx="1452667" cy="459814"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>Mark Biegert</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>Placeholder</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>1-Jan-2024</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="mbieg" refreshedDate="45627.941439236114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{5BA04B22-7455-4FEB-9C74-146E8376D702}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="_tSample"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Category A" numFmtId="0">
-      <sharedItems count="3">
-        <s v="A"/>
-        <s v="B"/>
-        <s v="C"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Category B" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
-        <n v="1"/>
-        <n v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Category C" numFmtId="0">
-      <sharedItems count="2">
-        <s v="a"/>
-        <s v="b"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Value" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
-  <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="Biegert Standard Pivot Table" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}" name="_tSample" displayName="_tSample" ref="B7:E13" totalsRowShown="0">
-  <autoFilter ref="B7:E13" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EAB90AB9-4DF0-4D28-92FF-E92E2FB5C4B8}" name="Category A"/>
-    <tableColumn id="2" xr3:uid="{A84F4913-BB7E-445E-9D72-1273969F005C}" name="Category B"/>
-    <tableColumn id="3" xr3:uid="{530D0831-FD68-42CB-A157-472F1AD1DA2D}" name="Category C"/>
-    <tableColumn id="4" xr3:uid="{8E3678D5-6F31-40B1-AEA1-B9917C6282B5}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="Biegert Table Standard" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert_Standard">
   <a:themeElements>
@@ -1399,8 +881,8 @@
   </sheetPr>
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1410,16 +892,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1" s="11" t="s">
-        <v>29</v>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -1584,33 +1066,33 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <f>_xlfn.STDEV.S(D7:D26)</f>
         <v>8.3514889942484292</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
         <f>AVERAGE(D7:D26)</f>
         <v>197.2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <f>(D29-D28)/(D27/SQRT(20))</f>
@@ -1619,16 +1101,16 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="10">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
         <f>20-1</f>
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <f>_xlfn.T.INV(0.05,19)</f>
@@ -1642,347 +1124,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>12-Jan-2025</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>12-Jan-2025</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>